--- a/tests/iaudit_results.xlsx
+++ b/tests/iaudit_results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="6585" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="6585"/>
   </bookViews>
   <sheets>
     <sheet name="input_benchmarks" sheetId="1" r:id="rId1"/>
@@ -2366,16 +2366,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>573881</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>140493</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>407194</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>169068</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>611981</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>169068</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>604838</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2702,8 +2702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2988,8 +2988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
